--- a/dummy_data.xlsx
+++ b/dummy_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniwa-my.sharepoint.com/personal/23199336_student_uwa_edu_au/Documents/CITS3200 Professional Computing/Access-to-SharePoint-CRM-Migration/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\CITS3200-Team-29\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EED88F07-949D-4C04-A669-3C0892038980}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE0A8A0-C80A-4286-994A-A9DA70FF2B61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Attendees" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,20 @@
     <definedName name="Reports">Reports!$A$1:$I$4</definedName>
     <definedName name="Responses">Responses!$A$1:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -308,7 +321,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -337,7 +350,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -652,14 +665,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -753,7 +766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -800,7 +813,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -847,7 +860,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -904,14 +917,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -919,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -927,7 +940,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -935,7 +948,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -943,7 +956,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -951,7 +964,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -969,14 +982,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1032,7 +1045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1088,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1144,7 +1157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1200,7 +1213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1266,14 +1279,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1281,7 +1294,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1289,7 +1302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1297,7 +1310,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1305,7 +1318,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1313,7 +1326,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1331,14 +1344,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
@@ -1367,7 +1380,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1396,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1425,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1464,14 +1477,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>86</v>
       </c>
@@ -1479,7 +1492,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1487,7 +1500,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1495,7 +1508,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
